--- a/data/georgia_census/samegrelo/senaki/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/senaki/healthcare_staff.xlsx
@@ -1303,13 +1303,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48845522-8591-43C2-80EF-C01458117F16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C006560-D4CD-43E2-A40C-EAF3154D3619}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7848FC7C-727A-402F-AF5F-B8643FFB11F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{134C112F-C878-4717-B4F3-7355F6EF7FA7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E099215-BE3E-4C00-A22A-A2F38BB30E69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75786B1-6A94-496B-9053-DBC61161041B}"/>
 </file>